--- a/data/trans_dic/P15D$consultar-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P15D$consultar-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.4545185387575842</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.05745451346603438</v>
+        <v>0.05745451346603436</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.3126232946543949</v>
@@ -711,10 +711,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03893104854611651</v>
+        <v>0.03816167878067634</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2247685444122049</v>
+        <v>0.2447883616413188</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>0</v>
@@ -724,22 +724,22 @@
       </c>
       <c r="H5" s="5" t="inlineStr"/>
       <c r="I5" s="5" t="n">
-        <v>0.02974240019995089</v>
+        <v>0.02856521287068161</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01620656009232224</v>
+        <v>0.01639182260708952</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.0561682452981198</v>
+        <v>0.05624962111954971</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.0214539527291064</v>
+        <v>0.02769068899129017</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1274811114908375</v>
+        <v>0.1342204336510155</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.01862697166105188</v>
+        <v>0.02128332242884665</v>
       </c>
     </row>
     <row r="6">
@@ -750,38 +750,38 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4071994171138264</v>
+        <v>0.4075223090046234</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3073695316970066</v>
+        <v>0.3372308887301025</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7149175785981217</v>
+        <v>0.7150121730941148</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1891009948697876</v>
+        <v>0.1935163014629736</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.8403850112587483</v>
+        <v>0.8226370479946479</v>
       </c>
       <c r="H6" s="5" t="inlineStr"/>
       <c r="I6" s="5" t="n">
-        <v>0.260127865813584</v>
+        <v>0.2692271295280867</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.152646132162526</v>
+        <v>0.1459852508107512</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.4485689869976063</v>
+        <v>0.4392756549328236</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1864757488150979</v>
+        <v>0.2103890508636369</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3762050718806818</v>
+        <v>0.3726422603265311</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1167116678971668</v>
+        <v>0.1288024754040889</v>
       </c>
     </row>
     <row r="7">
@@ -847,7 +847,7 @@
       </c>
       <c r="E8" s="5" t="inlineStr"/>
       <c r="F8" s="5" t="n">
-        <v>0.03977330642604485</v>
+        <v>0.04281854112902302</v>
       </c>
       <c r="G8" s="5" t="inlineStr"/>
       <c r="H8" s="5" t="n">
@@ -855,17 +855,17 @@
       </c>
       <c r="I8" s="5" t="inlineStr"/>
       <c r="J8" s="5" t="n">
-        <v>0.2225845629690334</v>
+        <v>0.2250702172546833</v>
       </c>
       <c r="K8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.01831827542983381</v>
+        <v>0.01746272618072634</v>
       </c>
       <c r="M8" s="5" t="inlineStr"/>
       <c r="N8" s="5" t="n">
-        <v>0.1714687073710279</v>
+        <v>0.1628519305016701</v>
       </c>
     </row>
     <row r="9">
@@ -876,32 +876,32 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.5787424481866136</v>
+        <v>0.5780431521995217</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2343783084487256</v>
+        <v>0.2150326669901041</v>
       </c>
       <c r="E9" s="5" t="inlineStr"/>
       <c r="F9" s="5" t="n">
-        <v>0.4514334049622172</v>
+        <v>0.4386340118710155</v>
       </c>
       <c r="G9" s="5" t="inlineStr"/>
       <c r="H9" s="5" t="n">
-        <v>0.2190987397410321</v>
+        <v>0.2385922743717874</v>
       </c>
       <c r="I9" s="5" t="inlineStr"/>
       <c r="J9" s="5" t="n">
-        <v>0.5041018451287865</v>
+        <v>0.4914319579509476</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3209661853202495</v>
+        <v>0.2611558055873419</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1558339087062708</v>
+        <v>0.1588414361341682</v>
       </c>
       <c r="M9" s="5" t="inlineStr"/>
       <c r="N9" s="5" t="n">
-        <v>0.4117734179213342</v>
+        <v>0.4131656198725688</v>
       </c>
     </row>
     <row r="10">
@@ -925,7 +925,7 @@
         <v>0.1969930372538144</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.0900843049591098</v>
+        <v>0.09008430495910981</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0</v>
@@ -963,35 +963,35 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01792249533428629</v>
+        <v>0.01757399769888989</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.07177998529034045</v>
+        <v>0.07686957195161287</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02148864383357245</v>
+        <v>0.02108340694334741</v>
       </c>
       <c r="G11" s="5" t="inlineStr"/>
       <c r="H11" s="5" t="n">
-        <v>0.04891997450867657</v>
+        <v>0.04866050076503465</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.0729966537492801</v>
+        <v>0.07002473095417104</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1049486142741623</v>
+        <v>0.09909206416822527</v>
       </c>
       <c r="K11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.05063595866867005</v>
+        <v>0.05101438597211285</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1207510643150917</v>
+        <v>0.1187431778349465</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.08689576881606802</v>
+        <v>0.0827562573657674</v>
       </c>
     </row>
     <row r="12">
@@ -1002,38 +1002,38 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3940584284813468</v>
+        <v>0.3197175086638304</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1780550046191393</v>
+        <v>0.1596880246776058</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3705397963679677</v>
+        <v>0.3901524235770411</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2389402785052406</v>
+        <v>0.2636938274790526</v>
       </c>
       <c r="G12" s="5" t="inlineStr"/>
       <c r="H12" s="5" t="n">
-        <v>0.2589831672060219</v>
+        <v>0.2456542593546476</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.5568064420390104</v>
+        <v>0.5800065338939301</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4011472231635729</v>
+        <v>0.3911729328819644</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2775152181654761</v>
+        <v>0.2738340949702299</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1731538833043533</v>
+        <v>0.1681443464218097</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3748681072098987</v>
+        <v>0.3668307662543832</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2840966084418994</v>
+        <v>0.2792809355373608</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.07735994099459154</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.07355773152983264</v>
+        <v>0.07355773152983262</v>
       </c>
     </row>
     <row r="14">
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02441221620250206</v>
+        <v>0.02496145353336383</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>0</v>
@@ -1111,19 +1111,19 @@
         <v>0</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.03272572790691647</v>
+        <v>0.03608358351479698</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.03344241052596277</v>
+        <v>0.03212843411041418</v>
       </c>
       <c r="L14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.03357379437849228</v>
+        <v>0.03445338138453941</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.02177496350040841</v>
+        <v>0.02678922698588949</v>
       </c>
     </row>
     <row r="15">
@@ -1134,38 +1134,38 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3076921838283364</v>
+        <v>0.3805935419674275</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.247830147067215</v>
+        <v>0.2051793772528907</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2313947619718454</v>
+        <v>0.2262287912818942</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1711880716856065</v>
+        <v>0.1851007202010806</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4149740267130831</v>
+        <v>0.4430404255274344</v>
       </c>
       <c r="H15" s="5" t="inlineStr"/>
       <c r="I15" s="5" t="n">
-        <v>0.1825624698210628</v>
+        <v>0.1799883418321178</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3244967920199719</v>
+        <v>0.3527778778075678</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2668331362283042</v>
+        <v>0.2598771397199539</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1329394049329709</v>
+        <v>0.1358073709915296</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1547964692731822</v>
+        <v>0.1579694655348333</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1714751308108885</v>
+        <v>0.1792195263389638</v>
       </c>
     </row>
     <row r="16">
@@ -1224,7 +1224,7 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1149396466734741</v>
+        <v>0.1161109176218742</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>0</v>
@@ -1242,10 +1242,10 @@
       <c r="I17" s="5" t="inlineStr"/>
       <c r="J17" s="5" t="inlineStr"/>
       <c r="K17" s="5" t="n">
-        <v>0.08144535869715047</v>
+        <v>0.07203923154494393</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.02795583111591327</v>
+        <v>0.02805052895264085</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>0</v>
@@ -1260,31 +1260,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8164368504678912</v>
+        <v>0.8687665233697418</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3418767549017597</v>
+        <v>0.3962282378212715</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4517436250546837</v>
+        <v>0.4575957250475746</v>
       </c>
       <c r="F18" s="5" t="inlineStr"/>
       <c r="G18" s="5" t="n">
-        <v>0.6893381610008833</v>
+        <v>0.687694025562178</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3810909338540545</v>
+        <v>0.41277051455121</v>
       </c>
       <c r="I18" s="5" t="inlineStr"/>
       <c r="J18" s="5" t="inlineStr"/>
       <c r="K18" s="5" t="n">
-        <v>0.6134480433478295</v>
+        <v>0.6071714575431085</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3119215098203429</v>
+        <v>0.3071984381822898</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3987175542035964</v>
+        <v>0.3954330420222223</v>
       </c>
       <c r="N18" s="5" t="inlineStr"/>
     </row>
@@ -1348,30 +1348,30 @@
         <v>0</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.03104960878586974</v>
+        <v>0.03254681695919379</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.0438899135467633</v>
+        <v>0.04894464177865974</v>
       </c>
       <c r="G20" s="5" t="inlineStr"/>
       <c r="H20" s="5" t="n">
-        <v>0.02872213675561788</v>
+        <v>0.02753436767064055</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.03334865733138746</v>
+        <v>0.0332781103076178</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1217082183409376</v>
+        <v>0.1231013358941812</v>
       </c>
       <c r="K20" s="5" t="inlineStr"/>
       <c r="L20" s="5" t="n">
-        <v>0.02886824748214996</v>
+        <v>0.02846131430094892</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.0606268132121932</v>
+        <v>0.0583540942839299</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1095054082872411</v>
+        <v>0.1108741676573356</v>
       </c>
     </row>
     <row r="21">
@@ -1383,33 +1383,33 @@
       </c>
       <c r="C21" s="5" t="inlineStr"/>
       <c r="D21" s="5" t="n">
-        <v>0.1553579055233499</v>
+        <v>0.1963602501684568</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2790541103841536</v>
+        <v>0.2884537763071646</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.2394677411486592</v>
+        <v>0.2377509717468528</v>
       </c>
       <c r="G21" s="5" t="inlineStr"/>
       <c r="H21" s="5" t="n">
-        <v>0.246687299516499</v>
+        <v>0.2332759573102373</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.2795768392387284</v>
+        <v>0.285289160033447</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.3302791520455798</v>
+        <v>0.3279944504383054</v>
       </c>
       <c r="K21" s="5" t="inlineStr"/>
       <c r="L21" s="5" t="n">
-        <v>0.1669186479450297</v>
+        <v>0.1552128464008539</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.230644623300661</v>
+        <v>0.2140993522604653</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.2482462261785625</v>
+        <v>0.2544835801452295</v>
       </c>
     </row>
     <row r="22">
@@ -1468,38 +1468,38 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.07243835444422281</v>
+        <v>0.07170054506213179</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.05764711755021715</v>
+        <v>0.06466976615836653</v>
       </c>
       <c r="E23" s="5" t="inlineStr"/>
       <c r="F23" s="5" t="n">
-        <v>0.04088189286290458</v>
+        <v>0.04220845547590946</v>
       </c>
       <c r="G23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.05028072249652723</v>
+        <v>0.05160391155966461</v>
       </c>
       <c r="I23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.09074687758126984</v>
+        <v>0.09046318176302227</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.07482235177584134</v>
+        <v>0.06344450572852069</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.06572370773475483</v>
+        <v>0.0769173785439153</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.08440945535958819</v>
+        <v>0.08567761902050847</v>
       </c>
     </row>
     <row r="24">
@@ -1510,38 +1510,38 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.3982472602325446</v>
+        <v>0.419897984992928</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2247359795933777</v>
+        <v>0.2303190893932934</v>
       </c>
       <c r="E24" s="5" t="inlineStr"/>
       <c r="F24" s="5" t="n">
-        <v>0.3000774565140809</v>
+        <v>0.2723654514745671</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3557767980227913</v>
+        <v>0.3419601641252027</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.2172753187067333</v>
+        <v>0.2236050845613676</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.2901256052962735</v>
+        <v>0.2573237100089886</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2701506484232763</v>
+        <v>0.2649226637766089</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.3012757126103002</v>
+        <v>0.3088581180672517</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.1873384189154566</v>
+        <v>0.1918934429804277</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.1525146894771858</v>
+        <v>0.1498943712639028</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.2268669557273743</v>
+        <v>0.2271192021161065</v>
       </c>
     </row>
     <row r="25">
@@ -1604,32 +1604,32 @@
       </c>
       <c r="D26" s="5" t="inlineStr"/>
       <c r="E26" s="5" t="n">
-        <v>0.02661996626273741</v>
+        <v>0.02718142461241948</v>
       </c>
       <c r="F26" s="5" t="inlineStr"/>
       <c r="G26" s="5" t="n">
-        <v>0.07839980867873338</v>
+        <v>0.07947671235421537</v>
       </c>
       <c r="H26" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.03629985955621774</v>
+        <v>0.03617337118070629</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.03998521176318479</v>
+        <v>0.04277861036897039</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.05989137227097142</v>
+        <v>0.058045531669879</v>
       </c>
       <c r="L26" s="5" t="n">
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.04780482700679332</v>
+        <v>0.04826449624148194</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.02266264208236281</v>
+        <v>0.02458797769359004</v>
       </c>
     </row>
     <row r="27">
@@ -1640,36 +1640,36 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.2454318228499651</v>
+        <v>0.2448039662442154</v>
       </c>
       <c r="D27" s="5" t="inlineStr"/>
       <c r="E27" s="5" t="n">
-        <v>0.2146676213967181</v>
+        <v>0.2212145768574664</v>
       </c>
       <c r="F27" s="5" t="inlineStr"/>
       <c r="G27" s="5" t="n">
-        <v>0.3956902050628147</v>
+        <v>0.4039365089474837</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.2070799779449898</v>
+        <v>0.234710173718294</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.3040647519672771</v>
+        <v>0.3322326697371746</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.2521626645962959</v>
+        <v>0.2504435483042733</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.2623333720240584</v>
+        <v>0.2482103472766612</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.139450169494879</v>
+        <v>0.1481481382876209</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.2240900136306106</v>
+        <v>0.2190080221613836</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.1382445515836933</v>
+        <v>0.1464944780189235</v>
       </c>
     </row>
     <row r="28">
@@ -1717,7 +1717,7 @@
         <v>0.1152862396046655</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>0.1348207847139925</v>
+        <v>0.1348207847139926</v>
       </c>
     </row>
     <row r="29">
@@ -1728,40 +1728,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.08526873387440979</v>
+        <v>0.07880360437150107</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.05446086970180992</v>
+        <v>0.05107066334351698</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.08935257637601915</v>
+        <v>0.08769774928772353</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.05344117735633263</v>
+        <v>0.05161680792172803</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.06715339164223137</v>
+        <v>0.06798481995835218</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.05387478186468465</v>
+        <v>0.05536053730064572</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.06323448786625396</v>
+        <v>0.06310310647467961</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.1397618249107318</v>
+        <v>0.1399433815853128</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.09049492133818282</v>
+        <v>0.09003559529541018</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.06205947829665855</v>
+        <v>0.06132875013888575</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.0863640675451105</v>
+        <v>0.08643674821217456</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.1065293528153712</v>
+        <v>0.1088463010599489</v>
       </c>
     </row>
     <row r="30">
@@ -1772,40 +1772,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.2034343881279127</v>
+        <v>0.2067123141464683</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.121138025179667</v>
+        <v>0.1220921038702031</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.1805958467185067</v>
+        <v>0.1743722190095187</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.1396878547870321</v>
+        <v>0.1366979692729175</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.2112228102569922</v>
+        <v>0.2211794543443237</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.1246655032603055</v>
+        <v>0.1252882270091185</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.1504273535815038</v>
+        <v>0.1541711897881559</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.2298497208102328</v>
+        <v>0.2274874451206909</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.1880831027163374</v>
+        <v>0.186830918338989</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.1120813445937581</v>
+        <v>0.1111973706930812</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.1512585629214219</v>
+        <v>0.1534884609491254</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.1674040507758118</v>
+        <v>0.1699762688795675</v>
       </c>
     </row>
     <row r="31">
@@ -2083,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1442</v>
+        <v>1413</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>4317</v>
+        <v>4701</v>
       </c>
       <c r="F6" s="6" t="n">
         <v>0</v>
@@ -2096,22 +2096,22 @@
       </c>
       <c r="H6" s="6" t="inlineStr"/>
       <c r="I6" s="6" t="n">
-        <v>898</v>
+        <v>862</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>1387</v>
+        <v>1790</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>6297</v>
+        <v>6630</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>1071</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="7">
@@ -2122,38 +2122,38 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>3785</v>
+        <v>3788</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>11384</v>
+        <v>12490</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>13731</v>
+        <v>13733</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>5113</v>
+        <v>5232</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>5957</v>
+        <v>5831</v>
       </c>
       <c r="H7" s="6" t="inlineStr"/>
       <c r="I7" s="6" t="n">
-        <v>7853</v>
+        <v>8127</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>4646</v>
+        <v>4443</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>7348</v>
+        <v>7196</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>12058</v>
+        <v>13604</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>18582</v>
+        <v>18406</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>6708</v>
+        <v>7403</v>
       </c>
     </row>
     <row r="8">
@@ -2263,7 +2263,7 @@
       </c>
       <c r="E10" s="6" t="inlineStr"/>
       <c r="F10" s="6" t="n">
-        <v>983</v>
+        <v>1058</v>
       </c>
       <c r="G10" s="6" t="inlineStr"/>
       <c r="H10" s="6" t="n">
@@ -2271,17 +2271,17 @@
       </c>
       <c r="I10" s="6" t="inlineStr"/>
       <c r="J10" s="6" t="n">
-        <v>7730</v>
+        <v>7817</v>
       </c>
       <c r="K10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>1124</v>
+        <v>1071</v>
       </c>
       <c r="M10" s="6" t="inlineStr"/>
       <c r="N10" s="6" t="n">
-        <v>10191</v>
+        <v>9679</v>
       </c>
     </row>
     <row r="11">
@@ -2292,32 +2292,32 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>4544</v>
+        <v>4539</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>7285</v>
+        <v>6683</v>
       </c>
       <c r="E11" s="6" t="inlineStr"/>
       <c r="F11" s="6" t="n">
-        <v>11152</v>
+        <v>10836</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="n">
-        <v>6629</v>
+        <v>7219</v>
       </c>
       <c r="I11" s="6" t="inlineStr"/>
       <c r="J11" s="6" t="n">
-        <v>17507</v>
+        <v>17067</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>5397</v>
+        <v>4391</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>9559</v>
+        <v>9743</v>
       </c>
       <c r="M11" s="6" t="inlineStr"/>
       <c r="N11" s="6" t="n">
-        <v>24473</v>
+        <v>24556</v>
       </c>
     </row>
     <row r="12">
@@ -2423,35 +2423,35 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>947</v>
+        <v>929</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1668</v>
+        <v>1786</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="n">
-        <v>1949</v>
+        <v>1939</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1013</v>
+        <v>972</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>2803</v>
+        <v>2646</v>
       </c>
       <c r="K14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>4694</v>
+        <v>4729</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>4481</v>
+        <v>4407</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>4259</v>
+        <v>4056</v>
       </c>
     </row>
     <row r="15">
@@ -2462,38 +2462,38 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>7183</v>
+        <v>5828</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>9411</v>
+        <v>8440</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>8608</v>
+        <v>9064</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>5331</v>
+        <v>5883</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="n">
-        <v>10318</v>
+        <v>9787</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>7729</v>
+        <v>8051</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>10713</v>
+        <v>10446</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>6226</v>
+        <v>6143</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>16050</v>
+        <v>15586</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>13912</v>
+        <v>13614</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>13925</v>
+        <v>13689</v>
       </c>
     </row>
     <row r="16">
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>937</v>
+        <v>958</v>
       </c>
       <c r="F18" s="6" t="n">
         <v>0</v>
@@ -2615,19 +2615,19 @@
         <v>0</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>635</v>
+        <v>700</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>923</v>
+        <v>887</v>
       </c>
       <c r="L18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>2510</v>
+        <v>2576</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1034</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="19">
@@ -2638,38 +2638,38 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>5482</v>
+        <v>6781</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>7558</v>
+        <v>6257</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>8884</v>
+        <v>8685</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>4810</v>
+        <v>5201</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>4064</v>
+        <v>4339</v>
       </c>
       <c r="H19" s="6" t="inlineStr"/>
       <c r="I19" s="6" t="n">
-        <v>6640</v>
+        <v>6546</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>6295</v>
+        <v>6844</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>7368</v>
+        <v>7175</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>6238</v>
+        <v>6372</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>11573</v>
+        <v>11810</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>8144</v>
+        <v>8512</v>
       </c>
     </row>
     <row r="20">
@@ -2772,7 +2772,7 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>841</v>
+        <v>850</v>
       </c>
       <c r="D22" s="6" t="n">
         <v>0</v>
@@ -2790,10 +2790,10 @@
       <c r="I22" s="6" t="inlineStr"/>
       <c r="J22" s="6" t="inlineStr"/>
       <c r="K22" s="6" t="n">
-        <v>1232</v>
+        <v>1090</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="M22" s="6" t="n">
         <v>0</v>
@@ -2808,31 +2808,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>5976</v>
+        <v>6359</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>4503</v>
+        <v>5219</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>4573</v>
+        <v>4633</v>
       </c>
       <c r="F23" s="6" t="inlineStr"/>
       <c r="G23" s="6" t="n">
-        <v>5381</v>
+        <v>5368</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>7545</v>
+        <v>8172</v>
       </c>
       <c r="I23" s="6" t="inlineStr"/>
       <c r="J23" s="6" t="inlineStr"/>
       <c r="K23" s="6" t="n">
-        <v>9278</v>
+        <v>9183</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>10284</v>
+        <v>10129</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>5370</v>
+        <v>5326</v>
       </c>
       <c r="N23" s="6" t="inlineStr"/>
     </row>
@@ -2940,30 +2940,30 @@
         <v>0</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>876</v>
+        <v>919</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>1142</v>
+        <v>1273</v>
       </c>
       <c r="G26" s="6" t="inlineStr"/>
       <c r="H26" s="6" t="n">
-        <v>1017</v>
+        <v>975</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>3424</v>
+        <v>3463</v>
       </c>
       <c r="K26" s="6" t="inlineStr"/>
       <c r="L26" s="6" t="n">
-        <v>1899</v>
+        <v>1872</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>3922</v>
+        <v>3775</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>5929</v>
+        <v>6004</v>
       </c>
     </row>
     <row r="27">
@@ -2975,33 +2975,33 @@
       </c>
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="n">
-        <v>4715</v>
+        <v>5960</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>7876</v>
+        <v>8141</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>6230</v>
+        <v>6186</v>
       </c>
       <c r="G27" s="6" t="inlineStr"/>
       <c r="H27" s="6" t="n">
-        <v>8736</v>
+        <v>8261</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>10193</v>
+        <v>10401</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>9291</v>
+        <v>9226</v>
       </c>
       <c r="K27" s="6" t="inlineStr"/>
       <c r="L27" s="6" t="n">
-        <v>10978</v>
+        <v>10208</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>14919</v>
+        <v>13849</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>13442</v>
+        <v>13780</v>
       </c>
     </row>
     <row r="28">
@@ -3104,38 +3104,38 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>1976</v>
+        <v>1956</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>3734</v>
+        <v>4188</v>
       </c>
       <c r="E30" s="6" t="inlineStr"/>
       <c r="F30" s="6" t="n">
-        <v>2281</v>
+        <v>2355</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>3001</v>
+        <v>3079</v>
       </c>
       <c r="I30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>5303</v>
+        <v>5286</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>3419</v>
+        <v>2899</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>8179</v>
+        <v>9572</v>
       </c>
       <c r="M30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>9643</v>
+        <v>9787</v>
       </c>
     </row>
     <row r="31">
@@ -3146,38 +3146,38 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>10866</v>
+        <v>11456</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>14555</v>
+        <v>14917</v>
       </c>
       <c r="E31" s="6" t="inlineStr"/>
       <c r="F31" s="6" t="n">
-        <v>16745</v>
+        <v>15199</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>6552</v>
+        <v>6297</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>12966</v>
+        <v>13344</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>7951</v>
+        <v>7052</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>15786</v>
+        <v>15480</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>13768</v>
+        <v>14115</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>23312</v>
+        <v>23879</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>8212</v>
+        <v>8071</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>25916</v>
+        <v>25945</v>
       </c>
     </row>
     <row r="32">
@@ -3284,32 +3284,32 @@
       </c>
       <c r="D34" s="6" t="inlineStr"/>
       <c r="E34" s="6" t="n">
-        <v>921</v>
+        <v>941</v>
       </c>
       <c r="F34" s="6" t="inlineStr"/>
       <c r="G34" s="6" t="n">
-        <v>2112</v>
+        <v>2141</v>
       </c>
       <c r="H34" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>1352</v>
+        <v>1447</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>3194</v>
+        <v>3095</v>
       </c>
       <c r="L34" s="6" t="n">
         <v>0</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>2932</v>
+        <v>2961</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>1436</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="35">
@@ -3320,36 +3320,36 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>6477</v>
+        <v>6460</v>
       </c>
       <c r="D35" s="6" t="inlineStr"/>
       <c r="E35" s="6" t="n">
-        <v>7429</v>
+        <v>7655</v>
       </c>
       <c r="F35" s="6" t="inlineStr"/>
       <c r="G35" s="6" t="n">
-        <v>10657</v>
+        <v>10879</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>5242</v>
+        <v>5941</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>8129</v>
+        <v>8883</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>8529</v>
+        <v>8471</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>13988</v>
+        <v>13235</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>6879</v>
+        <v>7308</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>13746</v>
+        <v>13434</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>8763</v>
+        <v>9286</v>
       </c>
     </row>
     <row r="36">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>10495</v>
+        <v>9699</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>15454</v>
+        <v>14492</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>17838</v>
+        <v>17507</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>11812</v>
+        <v>11409</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>6299</v>
+        <v>6377</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>13703</v>
+        <v>14081</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>12031</v>
+        <v>12006</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>32450</v>
+        <v>32492</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>19627</v>
+        <v>19527</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>33395</v>
+        <v>33002</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>33673</v>
+        <v>33702</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>48279</v>
+        <v>49329</v>
       </c>
     </row>
     <row r="39">
@@ -3496,40 +3496,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>25038</v>
+        <v>25442</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>34375</v>
+        <v>34646</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>36053</v>
+        <v>34811</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>30874</v>
+        <v>30213</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>19814</v>
+        <v>20748</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>31708</v>
+        <v>31866</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>28621</v>
+        <v>29334</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>53367</v>
+        <v>52818</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>40792</v>
+        <v>40520</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>60312</v>
+        <v>59837</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>58976</v>
+        <v>59845</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>75868</v>
+        <v>77034</v>
       </c>
     </row>
     <row r="40">
